--- a/pages/jj.xlsx
+++ b/pages/jj.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -25,12 +25,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.3999755851924192"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -45,8 +51,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,26 +397,30 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B3"/>
+      <selection activeCell="C10" sqref="A4:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col width="13.44140625" customWidth="1" min="1" max="1"/>
+    <col width="15.21875" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Alex</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Engineer</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Chennai</t>
         </is>
@@ -423,17 +434,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Rahul Shetty</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mechanic</t>
+          <t>Selenium Webdriver with Java Basics + Advanced + Interview Guide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bengaluru</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -445,17 +456,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dwayne</t>
+          <t>Rahul Shetty</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Learn SQL in Practical + Database Testing from Scratch</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Kolkata</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -467,17 +478,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ivory</t>
+          <t>Rahul Shetty</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Receptionist</t>
+          <t>Appium (Selenium) - Mobile Automation Testing from Scratch</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -489,17 +500,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jack</t>
+          <t>Rahul Shetty</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>WebSecurity Testing for Beginners-QA knowledge to next level</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -511,17 +522,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Joe</t>
+          <t>Rahul Shetty</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Postman</t>
+          <t>Learn JMETER from Scratch - (Performance + Load) Testing Tool</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -533,17 +544,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>Rahul Shetty</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Businessman</t>
+          <t>WebServices / REST API Testing with SoapUI</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -555,17 +566,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ronaldo</t>
+          <t>Rahul Shetty</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sportsman</t>
+          <t>QA Expert Course :Software Testing + Bugzilla + SQL + Agile</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -577,17 +588,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Rahul Shetty</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cricketer</t>
+          <t>Master Selenium Automation in simple Python Language</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -595,6 +606,43 @@
           <t>33</t>
         </is>
       </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Rahul Shetty</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Advanced Selenium Framework Pageobject, TestNG, Maven, Jenkins,C</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rahul Shetty</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Write effective QA Resume that will turn to interview call</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
